--- a/Фотография СТО.xlsx
+++ b/Фотография СТО.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanveselov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanveselov/Documents/GitHub/DayGlimpse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A627EB-F6CD-144B-9166-457A59150ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A6249-A1F3-6D48-9909-C6AA71602B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="38080" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,6 +385,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,54 +393,64 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="2"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="2"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="2"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="64"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color indexed="64"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -578,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +656,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,117 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,18 +804,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,11 +1052,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1059,40 +1073,40 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="69" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="2:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1125,37 +1139,37 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="61">
         <v>16</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="29">
         <v>3</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>3</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="36" t="s">
@@ -1163,93 +1177,93 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="37"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="65"/>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="38"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="38"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="38"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="53">
         <v>12</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="53">
         <v>3</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="53">
         <v>3</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="39"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="9"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="47"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="9"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="47"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="9"/>
       <c r="N9" s="45"/>
-      <c r="O9" s="47"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1259,139 +1273,139 @@
       <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="9"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="47"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="9"/>
       <c r="K10" s="45"/>
-      <c r="L10" s="47"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="9"/>
       <c r="N10" s="45"/>
-      <c r="O10" s="47"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>11</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="48">
         <v>2</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="9"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="9"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="47"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="9"/>
       <c r="N11" s="45"/>
-      <c r="O11" s="47"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="39"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="12"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="45"/>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="45"/>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="29">
         <v>15</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="29">
         <v>3</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="29">
         <v>3</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="29" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="33"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="33"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="31" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="34" t="s">
+      <c r="K15" s="32"/>
+      <c r="L15" s="31" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="34" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1403,143 +1417,143 @@
       <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="53">
         <v>3</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="42" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="42" t="s">
         <v>29</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="46" t="s">
+      <c r="O16" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="39"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="48">
         <v>11</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <v>2</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="9"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="47"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="9"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="47"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="9"/>
       <c r="N17" s="45"/>
-      <c r="O17" s="47"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="9"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="47"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="9"/>
       <c r="K18" s="45"/>
-      <c r="L18" s="47"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="9"/>
       <c r="N18" s="45"/>
-      <c r="O18" s="47"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="53">
         <v>18</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="53">
         <v>3</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="9"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="43" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="45"/>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="43" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="45"/>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="9"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="43" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="45"/>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="43" t="s">
         <v>29</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="45"/>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="39"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="12"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="45"/>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="44" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="45"/>
-      <c r="O21" s="48" t="s">
+      <c r="O21" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -1551,183 +1565,183 @@
       <c r="E22" s="13">
         <v>1</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="33">
         <v>3</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="30"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="33">
         <v>31</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="33">
         <v>3</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="32"/>
+      <c r="I23" s="30" t="s">
         <v>35</v>
       </c>
       <c r="J23" s="7"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="33" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="30" t="s">
         <v>35</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="33" t="s">
+      <c r="N23" s="32"/>
+      <c r="O23" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="32"/>
+      <c r="I24" s="30" t="s">
         <v>35</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="33" t="s">
+      <c r="K24" s="32"/>
+      <c r="L24" s="30" t="s">
         <v>35</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="33" t="s">
+      <c r="N24" s="32"/>
+      <c r="O24" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="33" t="s">
+      <c r="H25" s="32"/>
+      <c r="I25" s="30" t="s">
         <v>35</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="33" t="s">
+      <c r="K25" s="32"/>
+      <c r="L25" s="30" t="s">
         <v>35</v>
       </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="33" t="s">
+      <c r="N25" s="32"/>
+      <c r="O25" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="38">
         <v>9</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="40">
         <v>2</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="33" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="30" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="33" t="s">
+      <c r="K26" s="32"/>
+      <c r="L26" s="30" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="33" t="s">
+      <c r="N26" s="32"/>
+      <c r="O26" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="30"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="62"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="32"/>
+      <c r="I27" s="31" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="8"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="34" t="s">
+      <c r="K27" s="32"/>
+      <c r="L27" s="31" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="34" t="s">
+      <c r="N27" s="32"/>
+      <c r="O27" s="31" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F12"/>
     <mergeCell ref="O8:O12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -1744,34 +1758,34 @@
     <mergeCell ref="N13:N15"/>
     <mergeCell ref="O13:O15"/>
     <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" useFirstPageNumber="1"/>
@@ -1792,11 +1806,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -2061,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2079,13 +2093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
@@ -2095,13 +2109,13 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
@@ -2111,45 +2125,45 @@
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="38" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="A6" s="24">
         <v>1</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H6" t="str">
@@ -2162,25 +2176,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H7" t="str">
@@ -2193,25 +2207,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H8" t="str">
@@ -2224,25 +2238,25 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H9" t="str">
@@ -2255,25 +2269,25 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H10" t="str">
@@ -2286,25 +2300,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="24">
         <v>6</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H11" t="str">
@@ -2317,25 +2331,25 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="24">
         <v>7</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H12" t="str">
@@ -2348,25 +2362,25 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="24">
         <v>8</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H13" t="str">
@@ -2379,25 +2393,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="24">
         <v>9</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H14" t="str">
